--- a/misc/userstoriestemplate.xlsx
+++ b/misc/userstoriestemplate.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenechoi/Google Drive/2017-2018/67250/Web Dev Proj/misc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BEE86A-4A46-CD46-BE9C-D400D7D33119}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>As a/an</t>
   </si>
@@ -37,12 +43,102 @@
   </si>
   <si>
     <t>Web Development Project User Stories</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>find deals on kinds of birthday cakes</t>
+  </si>
+  <si>
+    <t>I can give my kid a good birthday cake for his birthday party</t>
+  </si>
+  <si>
+    <t>college student that's in the city for the first time</t>
+  </si>
+  <si>
+    <t>find reviews and posts about bakeries</t>
+  </si>
+  <si>
+    <t>I can get a good deal and find a place to fulfill my sweet desires</t>
+  </si>
+  <si>
+    <t>teenager</t>
+  </si>
+  <si>
+    <t>follow bakeries on social media</t>
+  </si>
+  <si>
+    <t>to find out deals at shops and find out if locations are opening up next to me</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>find products on sweets</t>
+  </si>
+  <si>
+    <t>I can send my grandkids sweet gifts</t>
+  </si>
+  <si>
+    <t>food critic</t>
+  </si>
+  <si>
+    <t>find out how to order the world famous almod torte</t>
+  </si>
+  <si>
+    <t>I can give it a review and see if it really is that good</t>
+  </si>
+  <si>
+    <t>find deals on cakes for holidays</t>
+  </si>
+  <si>
+    <t>I can give my students a cake as a gift for a holiday and being good students</t>
+  </si>
+  <si>
+    <t>bride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find deals on wedding cakes </t>
+  </si>
+  <si>
+    <t>I can get a good deal on a wedding cake for my wedding</t>
+  </si>
+  <si>
+    <t>soccer mom</t>
+  </si>
+  <si>
+    <t>find out when the best time is to go to the bakery</t>
+  </si>
+  <si>
+    <t>I can do a quick pick-up of products for my kids between practices</t>
+  </si>
+  <si>
+    <t>owner of a branch of Prantl's</t>
+  </si>
+  <si>
+    <t>see what products are being sold more than others</t>
+  </si>
+  <si>
+    <t>adjust the stock and what products should be promoted more or eliminated</t>
+  </si>
+  <si>
+    <t>person with allergies</t>
+  </si>
+  <si>
+    <t>be able to easily send an inquiry about the products at the bakery</t>
+  </si>
+  <si>
+    <t>I can find out if I can eat delicious products even with allergies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -200,6 +296,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -524,14 +628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="116" zoomScalePageLayoutView="116" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
@@ -539,7 +643,7 @@
     <col min="4" max="4" width="51.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -547,7 +651,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1">
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -561,86 +665,147 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1">
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -648,7 +813,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -656,7 +821,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -664,7 +829,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -672,7 +837,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -680,7 +845,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1">
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
